--- a/notebooks/ITPR1/input/ITPR1_SCA15_individuals.xlsx
+++ b/notebooks/ITPR1/input/ITPR1_SCA15_individuals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/ITPR1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA339375-57A9-1C4B-B09D-D463E57072D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF72ED8-AF61-B449-82B8-EECEA3B0D2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="4840" windowWidth="38400" windowHeight="12980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1240" yWindow="4800" windowWidth="38400" windowHeight="12980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ITPR1_SCA15_05222024" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="253">
   <si>
     <t>PMID</t>
   </si>
@@ -664,12 +664,6 @@
     <t>Family E037 individual II-4</t>
   </si>
   <si>
-    <t>DEL exons 1–39</t>
-  </si>
-  <si>
-    <t>DEL exons 1–52</t>
-  </si>
-  <si>
     <t>P72Y</t>
   </si>
   <si>
@@ -725,6 +719,66 @@
   </si>
   <si>
     <t>HP:0001268</t>
+  </si>
+  <si>
+    <t>DEL exons 1-39</t>
+  </si>
+  <si>
+    <t>DEL exons 1-52</t>
+  </si>
+  <si>
+    <t>PMID:37964426</t>
+  </si>
+  <si>
+    <t>Detailed Analysis of ITPR1 Missense Variants Guides Diagnostics and Therapeutic Design</t>
+  </si>
+  <si>
+    <t>Individual-100K-E1449A</t>
+  </si>
+  <si>
+    <t>c.4346A&gt;C</t>
+  </si>
+  <si>
+    <t>NM_001168272.2:c.4301A&gt;C=NM_001378452.1:c.4346A&gt;C</t>
+  </si>
+  <si>
+    <t>Middle age onset</t>
+  </si>
+  <si>
+    <t>Aniridia</t>
+  </si>
+  <si>
+    <t>HP:0000526</t>
+  </si>
+  <si>
+    <t>PMID:29186133</t>
+  </si>
+  <si>
+    <t>Mutational analysis of ITPR1 in a Taiwanese cohort with cerebellar ataxias</t>
+  </si>
+  <si>
+    <t>proband II-3</t>
+  </si>
+  <si>
+    <t>Hyporeflexia</t>
+  </si>
+  <si>
+    <t>HP:0001265</t>
+  </si>
+  <si>
+    <t>daughter III-1</t>
+  </si>
+  <si>
+    <t>P7Y</t>
+  </si>
+  <si>
+    <t>P13Y</t>
+  </si>
+  <si>
+    <t>NM_001168272.1:c.7721T&gt;C=NM_001378452.1:c.7766T&gt;C=NP_001365381.1:p.(Val2589Ala)</t>
+  </si>
+  <si>
+    <t>c.7766T&gt;C</t>
   </si>
 </sst>
 </file>
@@ -777,7 +831,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -788,6 +842,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1006,18 +1062,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BZ26"/>
+  <dimension ref="A1:CB29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y1" sqref="Y1:Y1048576"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.83203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14" style="3" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="19" style="3" customWidth="1"/>
@@ -1034,7 +1090,7 @@
     <col min="18" max="16384" width="12.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1168,109 +1224,115 @@
         <v>30</v>
       </c>
       <c r="AS1" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="AT1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BK1" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="AZ1" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BC1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="BD1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="BE1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="BF1" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="BG1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="BH1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="BI1" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BN1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BO1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BR1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BS1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BT1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BU1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="BV1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BW1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="BX1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BW1" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="BX1" s="2" t="s">
+      <c r="BY1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="CA1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="CB1" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -1404,109 +1466,115 @@
         <v>86</v>
       </c>
       <c r="AS2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="AT2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AW2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AY2" s="4" t="s">
+      <c r="AZ2" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="BC2" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BH2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="BI2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BK2" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="AZ2" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="BA2" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="BB2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="BC2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BD2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BE2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BF2" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="BG2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="BH2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BI2" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="BJ2" s="2" t="s">
+      <c r="BL2" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BK2" s="2" t="s">
+      <c r="BM2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="BL2" s="2" t="s">
+      <c r="BN2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="BM2" s="2" t="s">
+      <c r="BO2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="BN2" s="2" t="s">
+      <c r="BP2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="BO2" s="2" t="s">
+      <c r="BQ2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="BP2" s="2" t="s">
+      <c r="BR2" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="BQ2" s="2" t="s">
+      <c r="BS2" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="BR2" s="2" t="s">
+      <c r="BT2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="BS2" s="2" t="s">
+      <c r="BU2" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="BT2" s="2" t="s">
+      <c r="BV2" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="BU2" s="2" t="s">
+      <c r="BW2" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="BV2" s="2" t="s">
+      <c r="BX2" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="BW2" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="BX2" s="2" t="s">
+      <c r="BY2" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="BZ2" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="BY2" s="2" t="s">
+      <c r="CA2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="BZ2" s="2" t="s">
+      <c r="CB2" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>131</v>
       </c>
@@ -1611,28 +1679,28 @@
       <c r="AQ3" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AS3" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="AT3" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AX3" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BI3" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BL3" s="2"/>
-      <c r="BU3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BK3" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BN3" s="2"/>
+      <c r="BW3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="BV3" s="2" t="s">
+      <c r="BX3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="BW3" s="2"/>
+      <c r="BY3" s="2"/>
     </row>
-    <row r="4" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>131</v>
       </c>
@@ -1737,24 +1805,24 @@
       <c r="AQ4" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AS4" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="AT4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AX4" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BI4" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BL4" s="2"/>
-      <c r="BU4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="BK4" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BN4" s="2"/>
+      <c r="BW4" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>131</v>
       </c>
@@ -1859,24 +1927,24 @@
       <c r="AQ5" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AS5" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="AT5" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AX5" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BI5" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BL5" s="2"/>
-      <c r="BU5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BK5" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BN5" s="2"/>
+      <c r="BW5" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>131</v>
       </c>
@@ -1976,24 +2044,24 @@
       <c r="AQ6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AS6" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="AT6" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AX6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BI6" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BL6" s="2"/>
-      <c r="BU6" s="2" t="s">
+      <c r="AU6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="BK6" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BN6" s="2"/>
+      <c r="BW6" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>131</v>
       </c>
@@ -2093,24 +2161,24 @@
       <c r="AQ7" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AS7" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="AT7" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AX7" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="BI7" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BL7" s="2"/>
-      <c r="BU7" s="2" t="s">
+      <c r="AU7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY7" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BK7" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BN7" s="2"/>
+      <c r="BW7" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>157</v>
       </c>
@@ -2195,26 +2263,26 @@
       <c r="AM8" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="AS8" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="AT8" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="BE8" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF8" s="3" t="s">
+      <c r="AU8" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BG8" s="3" t="s">
         <v>127</v>
       </c>
       <c r="BH8" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="BI8" s="5" t="s">
+      <c r="BJ8" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BK8" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>157</v>
       </c>
@@ -2296,26 +2364,26 @@
       <c r="AM9" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="AS9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AT9" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BE9" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF9" s="3" t="s">
+      <c r="AT9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BG9" s="3" t="s">
         <v>127</v>
       </c>
       <c r="BH9" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="BI9" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BJ9" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BK9" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>157</v>
       </c>
@@ -2397,26 +2465,26 @@
       <c r="AM10" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="AS10" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="AT10" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="BE10" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF10" s="3" t="s">
+      <c r="AU10" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BG10" s="3" t="s">
         <v>127</v>
       </c>
       <c r="BH10" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="BI10" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BJ10" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BK10" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>157</v>
       </c>
@@ -2498,26 +2566,26 @@
       <c r="AM11" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="AS11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AT11" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BE11" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF11" s="3" t="s">
+      <c r="AT11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BG11" s="3" t="s">
         <v>127</v>
       </c>
       <c r="BH11" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="BI11" s="5" t="s">
+      <c r="BJ11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BK11" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>157</v>
       </c>
@@ -2599,26 +2667,26 @@
       <c r="AM12" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="AS12" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="AT12" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="BE12" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF12" s="3" t="s">
+      <c r="AU12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BG12" s="3" t="s">
         <v>127</v>
       </c>
       <c r="BH12" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="BI12" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BJ12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BK12" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>157</v>
       </c>
@@ -2700,26 +2768,26 @@
       <c r="AM13" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="AS13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AT13" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BE13" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF13" s="3" t="s">
+      <c r="AT13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BG13" s="3" t="s">
         <v>127</v>
       </c>
       <c r="BH13" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="BI13" s="5" t="s">
+      <c r="BJ13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BK13" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>157</v>
       </c>
@@ -2801,26 +2869,26 @@
       <c r="AM14" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="AS14" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="AT14" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BE14" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BG14" s="3" t="s">
         <v>127</v>
       </c>
       <c r="BH14" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="BI14" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BJ14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BK14" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>157</v>
       </c>
@@ -2902,26 +2970,26 @@
       <c r="AM15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="AS15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AT15" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BE15" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF15" s="3" t="s">
+      <c r="AT15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU15" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BG15" s="3" t="s">
         <v>127</v>
       </c>
       <c r="BH15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="BI15" s="5" t="s">
+      <c r="BJ15" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BK15" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>157</v>
       </c>
@@ -3003,26 +3071,26 @@
       <c r="AM16" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="AS16" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="AT16" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BE16" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU16" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BG16" s="3" t="s">
         <v>127</v>
       </c>
       <c r="BH16" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="BI16" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BJ16" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BK16" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>202</v>
       </c>
@@ -3048,16 +3116,16 @@
         <v>124</v>
       </c>
       <c r="J17" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>216</v>
-      </c>
       <c r="N17" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>125</v>
@@ -3098,38 +3166,39 @@
       <c r="AP17" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AS17" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="AY17" s="5" t="s">
-        <v>72</v>
+      <c r="AT17" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="AZ17" s="5" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="BA17" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="BE17" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="BF17" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB17" s="5"/>
+      <c r="BC17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG17" s="5" t="s">
         <v>72</v>
       </c>
       <c r="BH17" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="BI17" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="BV17" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW17" s="5" t="s">
+      <c r="BJ17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BK17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BY17" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>202</v>
       </c>
@@ -3155,16 +3224,16 @@
         <v>124</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>72</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>125</v>
@@ -3205,11 +3274,8 @@
       <c r="AP18" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="AS18" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="AY18" s="5" t="s">
-        <v>128</v>
+      <c r="AT18" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="AZ18" s="5" t="s">
         <v>128</v>
@@ -3217,26 +3283,30 @@
       <c r="BA18" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="BE18" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF18" s="5" t="s">
-        <v>128</v>
+      <c r="BB18" s="5"/>
+      <c r="BC18" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BG18" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="BH18" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="BI18" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BV18" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BW18" s="5" t="s">
+      <c r="BJ18" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BK18" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BX18" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BY18" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>202</v>
       </c>
@@ -3262,16 +3332,16 @@
         <v>124</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>72</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>125</v>
@@ -3312,11 +3382,8 @@
       <c r="AP19" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="AS19" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="AY19" s="5" t="s">
-        <v>128</v>
+      <c r="AT19" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="AZ19" s="5" t="s">
         <v>128</v>
@@ -3324,26 +3391,30 @@
       <c r="BA19" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="BE19" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF19" s="5" t="s">
-        <v>128</v>
+      <c r="BB19" s="5"/>
+      <c r="BC19" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BG19" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="BH19" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="BI19" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BV19" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BW19" s="5" t="s">
+      <c r="BJ19" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BK19" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BX19" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BY19" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>202</v>
       </c>
@@ -3369,13 +3440,13 @@
         <v>124</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>72</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N20" s="5" t="s">
         <v>176</v>
@@ -3419,11 +3490,8 @@
       <c r="AP20" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="AS20" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="AY20" s="5" t="s">
-        <v>128</v>
+      <c r="AT20" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="AZ20" s="5" t="s">
         <v>128</v>
@@ -3431,26 +3499,30 @@
       <c r="BA20" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="BE20" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF20" s="5" t="s">
-        <v>128</v>
+      <c r="BB20" s="5"/>
+      <c r="BC20" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BG20" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="BH20" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="BI20" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BV20" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BW20" s="5" t="s">
+      <c r="BJ20" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BK20" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BX20" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BY20" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>202</v>
       </c>
@@ -3476,7 +3548,7 @@
         <v>124</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>72</v>
@@ -3526,11 +3598,8 @@
       <c r="AP21" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="AS21" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="AY21" s="5" t="s">
-        <v>128</v>
+      <c r="AT21" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="AZ21" s="5" t="s">
         <v>128</v>
@@ -3538,26 +3607,30 @@
       <c r="BA21" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="BE21" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="BF21" s="5" t="s">
+      <c r="BB21" s="5"/>
+      <c r="BC21" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BG21" s="5" t="s">
         <v>72</v>
       </c>
       <c r="BH21" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BI21" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BV21" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BW21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ21" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BK21" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BX21" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BY21" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>202</v>
       </c>
@@ -3583,7 +3656,7 @@
         <v>124</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>72</v>
@@ -3633,11 +3706,8 @@
       <c r="AP22" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="AS22" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="AY22" s="5" t="s">
-        <v>128</v>
+      <c r="AT22" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="AZ22" s="5" t="s">
         <v>128</v>
@@ -3645,26 +3715,30 @@
       <c r="BA22" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="BE22" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="BF22" s="5" t="s">
+      <c r="BB22" s="5"/>
+      <c r="BC22" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BG22" s="5" t="s">
         <v>72</v>
       </c>
       <c r="BH22" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="BI22" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BV22" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BW22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ22" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BK22" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BX22" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BY22" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>202</v>
       </c>
@@ -3690,7 +3764,7 @@
         <v>124</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>72</v>
@@ -3740,38 +3814,39 @@
       <c r="AP23" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="AS23" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="AY23" s="5" t="s">
-        <v>128</v>
+      <c r="AT23" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="AZ23" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BA23" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE23" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF23" s="5" t="s">
-        <v>72</v>
+        <v>127</v>
+      </c>
+      <c r="BB23" s="5"/>
+      <c r="BC23" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BG23" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="BH23" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="BI23" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BV23" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BW23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ23" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BK23" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BX23" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BY23" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>202</v>
       </c>
@@ -3797,16 +3872,16 @@
         <v>124</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>72</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>125</v>
@@ -3847,38 +3922,39 @@
       <c r="AP24" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="AS24" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="AY24" s="5" t="s">
-        <v>128</v>
+      <c r="AT24" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="AZ24" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BA24" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE24" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="BF24" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB24" s="5"/>
+      <c r="BC24" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BG24" s="5" t="s">
         <v>72</v>
       </c>
       <c r="BH24" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="BI24" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BV24" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BW24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ24" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BK24" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BX24" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BY24" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>202</v>
       </c>
@@ -3904,7 +3980,7 @@
         <v>124</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>72</v>
@@ -3913,7 +3989,7 @@
         <v>155</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>125</v>
@@ -3954,10 +4030,7 @@
       <c r="AP25" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="AS25" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="AY25" s="5" t="s">
+      <c r="AT25" s="5" t="s">
         <v>127</v>
       </c>
       <c r="AZ25" s="5" t="s">
@@ -3966,26 +4039,30 @@
       <c r="BA25" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="BE25" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF25" s="5" t="s">
+      <c r="BB25" s="5"/>
+      <c r="BC25" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BG25" s="5" t="s">
         <v>127</v>
       </c>
       <c r="BH25" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="BI25" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="BV25" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="BW25" s="5" t="s">
+      <c r="BJ25" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BK25" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BX25" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BY25" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>202</v>
       </c>
@@ -4011,7 +4088,7 @@
         <v>124</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>72</v>
@@ -4020,7 +4097,7 @@
         <v>177</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>125</v>
@@ -4061,35 +4138,279 @@
       <c r="AP26" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="AS26" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="AY26" s="5" t="s">
+      <c r="AT26" s="5" t="s">
         <v>127</v>
       </c>
       <c r="AZ26" s="5" t="s">
         <v>127</v>
       </c>
       <c r="BA26" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE26" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF26" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB26" s="5"/>
+      <c r="BC26" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BG26" s="5" t="s">
         <v>127</v>
       </c>
       <c r="BH26" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="BI26" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="BV26" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="BW26" s="5" t="s">
-        <v>127</v>
+      <c r="BJ26" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BK26" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BX26" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BY26" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="T27" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC27" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS27" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT27" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BN27" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA28" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC28" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD28" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF28" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG28" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI28" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="BA28" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BB28" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="BG28" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="BH28" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="BJ28" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="AI29" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="BG29" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="BH29" s="3" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
